--- a/biology/Zoologie/Cryptopimpla_nigripalpis/Cryptopimpla_nigripalpis.xlsx
+++ b/biology/Zoologie/Cryptopimpla_nigripalpis/Cryptopimpla_nigripalpis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fintona nigripalpis
 Cryptopimpla nigripalpis est une espèce de guêpes parasitoïdes de la famille des Ichneumonidae dans la sous-famille des Banchinae.
@@ -512,20 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cryptopimpla nigripalpis est décrite en 1909 par l'entomologiste anglais Peter Cameron (1847-1912), sous le protonyme Fintona nigripalpis[1],[2].
-Fossiles
-Selon Paleobiology Database en 2023, deux collections de fossiles sont référencées :
-Chattien de l'Oligocène supérieur deux collections de France, d'Aix-en-Provence dans le département des Bouches-du-Rhône, décrites en 1915 par le paléontologue belge Fernand Meunier[3], pour la collection Coquand, et en 1937 par le paléontologue français Nicolas Théobald (1903-1981) pour sa propre collection[4],[2].
-Citation
-L'espèce Fintona nigripalpis est citée en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[4],[2].
-Rennommage du genre
-Le genre Finoma est synonymisé avec le genre Cryptopimpla en 2014 par D. Wahl[5],[6].
-Synonyme
-Fintona nigripalpis Cameron, 1909
-Étymologie
-L'épithète spécifique nigripalpis signifie en latin « peau noire » : voir paragraphe #Caractères.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cryptopimpla nigripalpis est décrite en 1909 par l'entomologiste anglais Peter Cameron (1847-1912), sous le protonyme Fintona nigripalpis,.
 </t>
         </is>
       </c>
@@ -551,20 +554,281 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, deux collections de fossiles sont référencées :
+Chattien de l'Oligocène supérieur deux collections de France, d'Aix-en-Provence dans le département des Bouches-du-Rhône, décrites en 1915 par le paléontologue belge Fernand Meunier, pour la collection Coquand, et en 1937 par le paléontologue français Nicolas Théobald (1903-1981) pour sa propre collection,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cryptopimpla_nigripalpis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptopimpla_nigripalpis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Citation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Fintona nigripalpis est citée en 1937 par le paléontologue français Nicolas Théobald (1903-1981),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cryptopimpla_nigripalpis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptopimpla_nigripalpis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rennommage du genre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Finoma est synonymisé avec le genre Cryptopimpla en 2014 par D. Wahl,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cryptopimpla_nigripalpis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptopimpla_nigripalpis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fintona nigripalpis Cameron, 1909</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cryptopimpla_nigripalpis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptopimpla_nigripalpis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique nigripalpis signifie en latin « peau noire » : voir paragraphe #Caractères.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cryptopimpla_nigripalpis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptopimpla_nigripalpis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald de 1937[4],[note 1] : 
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald de 1937,[note 1] : 
 « Holotype : A1022. Coll. N. Th. 
 Cotype: N° 2. Coll. Coquand, Ecole des Mines à Paris. 
-Bel Insecte, tête et thorax noirs, abdomen jaune rougeâtre, pattes rousses, ailes transparentes. Tête transversale, front allongé ; deux gros yeux ; antennes presque aussi longues que le corps, de teinte foncée, filiformes. thorax noir, ponctué. Abdomen rougeâtre, segments basal et anal noirs, les trois premiers segments sont ponctués, tarière fortement exsertile. Pattes longues, les hanches, le trochanter, l'extrémité des tibias et des fémurs sont noirs, le reste roux. Ailes transparentes, légérement enfumées. Stigma noir, aréole triangulaire, rhomboïdale, deuxième nervure récurrente, légèrement recourbée ; la nervure discoïdo-cubitale est fortement recourbée, pas de ramellus. »[4].
-Dimensions
-La longueur totale de l'insecte est de 9,5-8 mm et l'aile antérieure de 7,5-6 mm[4].
-Affinités
-« Par la tarière exsertile, l'aréole rhomboïdale et large, ces deux échantillons appartiennent aux Pimplinae, tribu des Branchides. Très voisin de Fintoma nigripalpis Cam. du Pendjab. Nous avons même cru d'abord à l'identité de ces deux formes. Pourtant ici, les ailes sont moins transparentes, le stigma est plus large et la tarière est plus longue que dans F. nigripalpis Cam. C'est pourquoi nous nous croyons obligé de l'en séparer ; mais il se place très probablement dans la lignée de F. nigripalpis Cam. »[4].
+Bel Insecte, tête et thorax noirs, abdomen jaune rougeâtre, pattes rousses, ailes transparentes. Tête transversale, front allongé ; deux gros yeux ; antennes presque aussi longues que le corps, de teinte foncée, filiformes. thorax noir, ponctué. Abdomen rougeâtre, segments basal et anal noirs, les trois premiers segments sont ponctués, tarière fortement exsertile. Pattes longues, les hanches, le trochanter, l'extrémité des tibias et des fémurs sont noirs, le reste roux. Ailes transparentes, légérement enfumées. Stigma noir, aréole triangulaire, rhomboïdale, deuxième nervure récurrente, légèrement recourbée ; la nervure discoïdo-cubitale est fortement recourbée, pas de ramellus. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cryptopimpla_nigripalpis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptopimpla_nigripalpis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale de l'insecte est de 9,5-8 mm et l'aile antérieure de 7,5-6 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cryptopimpla_nigripalpis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptopimpla_nigripalpis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Par la tarière exsertile, l'aréole rhomboïdale et large, ces deux échantillons appartiennent aux Pimplinae, tribu des Branchides. Très voisin de Fintoma nigripalpis Cam. du Pendjab. Nous avons même cru d'abord à l'identité de ces deux formes. Pourtant ici, les ailes sont moins transparentes, le stigma est plus large et la tarière est plus longue que dans F. nigripalpis Cam. C'est pourquoi nous nous croyons obligé de l'en séparer ; mais il se place très probablement dans la lignée de F. nigripalpis Cam. ».
 </t>
         </is>
       </c>
